--- a/biology/Botanique/Jardin_d'atmosphère_du_Petit-Bordeaux/Jardin_d'atmosphère_du_Petit-Bordeaux.xlsx
+++ b/biology/Botanique/Jardin_d'atmosphère_du_Petit-Bordeaux/Jardin_d'atmosphère_du_Petit-Bordeaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_d%27atmosph%C3%A8re_du_Petit-Bordeaux</t>
+          <t>Jardin_d'atmosphère_du_Petit-Bordeaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin d'atmosphère du Petit-Bordeaux est un jardin aménagé à Saint-Biez-en-Belin, dans le département de la Sarthe et la région Pays de la Loire. D'une surface de 1,7 hectare, il compte près de 4 300 espèces végétales. Cette propriété privée est l'un des sept espaces verts du département classés Jardin remarquable.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_d%27atmosph%C3%A8re_du_Petit-Bordeaux</t>
+          <t>Jardin_d'atmosphère_du_Petit-Bordeaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jardins se trouvent au sud du village de Saint-Biez-en-Belin, dans le département de la Sarthe, à proximité de la route départementale 77.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_d%27atmosph%C3%A8re_du_Petit-Bordeaux</t>
+          <t>Jardin_d'atmosphère_du_Petit-Bordeaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin est créé en 1986 par Michel et Sylvie Berrou Autour d'une maison du XVIIIe siècle. Il compte environ 4 300 variétés de plantes[1]. Classé Jardin remarquable[2], le jardin d'atmosphère du Petit-Bordeaux reçoit le premier prix Bonpland 2002 décerné par la Société nationale d'horticulture de France ainsi que le premier prix du Top des Parcs en 2007[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin est créé en 1986 par Michel et Sylvie Berrou Autour d'une maison du XVIIIe siècle. Il compte environ 4 300 variétés de plantes. Classé Jardin remarquable, le jardin d'atmosphère du Petit-Bordeaux reçoit le premier prix Bonpland 2002 décerné par la Société nationale d'horticulture de France ainsi que le premier prix du Top des Parcs en 2007.
 </t>
         </is>
       </c>
